--- a/TFG1_assignments_fall2014.xlsx
+++ b/TFG1_assignments_fall2014.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="600" windowWidth="22695" windowHeight="8385"/>
+    <workbookView xWindow="6760" yWindow="1060" windowWidth="17780" windowHeight="14880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>Peak#</t>
   </si>
@@ -80,6 +85,9 @@
   <si>
     <t>MASTITEKDIIEAIGDGKVNIKEFGKFIRRKYPGAENKKLMFAIVKKLCRKVGNDHMELKKE</t>
   </si>
+  <si>
+    <t>Met Ala Ser Thr Ile Thr Glu Lys Asp Ile Ile Glu Ala Ile Gly Asp Gly Lys Val Asn Ile Lys  Glu Phe Gly Lys Phe Ile Arg Arg Lys Tyr Pro Gly Ala Glu Asn Lys Lys Leu Met Phe Ala Ile Val Lys Lys Leu Cys Arg Lys Val Gly Asn Asp His Met Glu Leu Lys Lys Glu</t>
+  </si>
 </sst>
 </file>
 
@@ -88,7 +96,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]&quot;-&quot;[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +132,18 @@
       <sz val="14"/>
       <name val="Liberation Sans"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Liberation Sans"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -142,7 +162,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center"/>
@@ -152,6 +172,8 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -171,9 +193,11 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Heading" xfId="1"/>
     <cellStyle name="Heading1" xfId="2"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Result" xfId="3"/>
     <cellStyle name="Result2" xfId="4"/>
@@ -478,10 +502,10 @@
   <dimension ref="A1:AME68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.75" style="3" customWidth="1"/>
@@ -513,6 +537,11 @@
         <v>20</v>
       </c>
     </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>0</v>
@@ -2289,11 +2318,16 @@
     <sortCondition descending="1" ref="B3:B64"/>
   </sortState>
   <pageMargins left="0" right="0" top="0.39410000000000006" bottom="0.39410000000000006" header="0" footer="0"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2303,7 +2337,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.75" customWidth="1"/>
   </cols>
@@ -2313,6 +2347,11 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2322,7 +2361,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.75" customWidth="1"/>
   </cols>
@@ -2332,5 +2371,10 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>